--- a/book_keep_AI/dummy_data.xlsx
+++ b/book_keep_AI/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661F796-16C6-45F0-BE48-0178086AEB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF25472-16C2-412C-B917-707804A58D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Memo</t>
   </si>
@@ -211,6 +211,102 @@
   </si>
   <si>
     <t>METROPCS PMT  #9103 679-012-2456 PA</t>
+  </si>
+  <si>
+    <t>VERIZON WIRELESS PMT, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>AMZN MKTPLACE PMTS, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>UBER TRIP HELP, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>STARBUCKS STORE, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>NETFLIX, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>Apartment Rent, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>ADP PAYROLL INC, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>LYFT, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>SPOTIFY, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>ASHLEY'S FURNITURE, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>The Home Depot, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>WAL-MART #1234, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>CVS PHARMACY #8901, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>SHELL OIL 0572, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>TARGET T1842, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>APPLE.COM/BILL ITUNES, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>DELTA AIRLINES TXN 9832, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>CHIPOTLE ONLINE ORDER, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>INSTA CART #00112, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>T-MOBILE PMT #4563, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>DISNEY+ SUBSCRIPTION, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>DOORDASH ORDER #112398, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>MCDONALDS #342, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>DUNKIN D's #3420, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>ELECTRIC CO PMT, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>VENMO TRANSFER ID 78A34, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>COSTCO WHOLESALE, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>ZARA ONLINE TXN 432, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>RAISING CANE'S, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>E-ZPASS TOLL #8921, 800-922-0204, NJ</t>
+  </si>
+  <si>
+    <t>AT&amp;T Bill Payment #9981, 800-922-0204, NJ</t>
   </si>
 </sst>
 </file>
@@ -528,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1123,166 @@
         <v>90.1</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/book_keep_AI/dummy_data.xlsx
+++ b/book_keep_AI/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF25472-16C2-412C-B917-707804A58D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37178B7A-44B0-44BB-B3F4-8963D2E5AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>

--- a/book_keep_AI/dummy_data.xlsx
+++ b/book_keep_AI/dummy_data.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37178B7A-44B0-44BB-B3F4-8963D2E5AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70D25B-98F5-49B4-B078-A976391B9404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>Memo</t>
   </si>
@@ -33,290 +44,210 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>T-MOBILE PMT  #4563 800-922-0204 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #7890 123-456-7890 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #2345 987-654-3210 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #5678 555-123-4567 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #3456 666-777-8888 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #1234 234-567-8901 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #5678 345-678-9012 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #9101 456-789-0123 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #2345 567-890-1234 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #6789 678-901-2345 PA</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT  #4321 789-012-3456 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #8765 890-123-4567 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #3456 901-234-5678 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #6543 012-345-6789 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #9876 123-456-7890 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #2345 234-567-8901 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #6789 345-678-9012 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #1234 456-789-0123 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #5678 567-890-1234 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #9101 678-901-2345 PA</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT  #3457 801-923-0205 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #7891 124-457-7891 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #2346 988-655-3211 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #5679 556-124-4568 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #3457 667-778-8899 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #1235 235-568-8902 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #5679 346-679-9023 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #9102 457-780-0134 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #2346 568-901-1345 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #6790 679-012-2456 PA</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT  #4322 790-013-3457 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #8766 891-124-4568 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #3457 902-235-5679 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #6544 013-346-6780 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #9877 124-457-7891 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #2346 235-568-8902 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #6790 346-679-9013 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #1235 457-780-0124 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #5679 568-901-1345 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #9102 679-012-2456 PA</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT  #3458 801-923-0205 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #7892 124-457-7891 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #2347 988-655-3211 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #5680 556-124-4568 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #3458 667-778-8899 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #1236 235-568-8902 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #5680 346-679-9023 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #9103 457-780-0134 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #2347 568-901-1345 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #6791 679-012-2456 PA</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT  #4323 790-013-3457 NJ</t>
-  </si>
-  <si>
-    <t>VERIZON PMT  #8767 891-124-4568 CA</t>
-  </si>
-  <si>
-    <t>COMCAST PMT  #3458 902-235-5679 TX</t>
-  </si>
-  <si>
-    <t>AT&amp;T PMT  #6545 013-346-6780 FL</t>
-  </si>
-  <si>
-    <t>SPRINT PMT  #9878 124-457-7891 NY</t>
-  </si>
-  <si>
-    <t>SPECTRUM PMT  #2347 235-568-8902 WA</t>
-  </si>
-  <si>
-    <t>COX PMT  #6791 346-679-9013 IL</t>
-  </si>
-  <si>
-    <t>VZW PMT  #1236 457-780-0124 GA</t>
-  </si>
-  <si>
-    <t>US CELLULAR PMT  #5680 568-901-1345 OH</t>
-  </si>
-  <si>
-    <t>METROPCS PMT  #9103 679-012-2456 PA</t>
-  </si>
-  <si>
-    <t>VERIZON WIRELESS PMT, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>AMZN MKTPLACE PMTS, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>UBER TRIP HELP, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>STARBUCKS STORE, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>NETFLIX, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>Apartment Rent, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>ADP PAYROLL INC, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>LYFT, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>WHOLE FOODS, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>SPOTIFY, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>ASHLEY'S FURNITURE, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>The Home Depot, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>WAL-MART #1234, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>CVS PHARMACY #8901, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>SHELL OIL 0572, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>TARGET T1842, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>APPLE.COM/BILL ITUNES, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>DELTA AIRLINES TXN 9832, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>CHIPOTLE ONLINE ORDER, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>INSTA CART #00112, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>T-MOBILE PMT #4563, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>DISNEY+ SUBSCRIPTION, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>DOORDASH ORDER #112398, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>MCDONALDS #342, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>DUNKIN D's #3420, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>ELECTRIC CO PMT, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>VENMO TRANSFER ID 78A34, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>COSTCO WHOLESALE, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>ZARA ONLINE TXN 432, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>RAISING CANE'S, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>E-ZPASS TOLL #8921, 800-922-0204, NJ</t>
-  </si>
-  <si>
-    <t>AT&amp;T Bill Payment #9981, 800-922-0204, NJ</t>
+    <t>ACH CREDIT PAYROLL JOHNSON CORP</t>
+  </si>
+  <si>
+    <t>DIRECT DEP IRS TAX REFUND</t>
+  </si>
+  <si>
+    <t>MOBILE DEPOSIT CHECK #2045</t>
+  </si>
+  <si>
+    <t>VENMO PAYMENT FROM SARAH M.</t>
+  </si>
+  <si>
+    <t>ZELLE FROM MIKE H. — DINNER</t>
+  </si>
+  <si>
+    <t>STRIPE PAYOUT 08/01/25</t>
+  </si>
+  <si>
+    <t>REFUND FROM AMAZON</t>
+  </si>
+  <si>
+    <t>CASH DEPOSIT ATM #3327</t>
+  </si>
+  <si>
+    <t>INTEREST PAYMENT</t>
+  </si>
+  <si>
+    <t>REIMBURSEMENT — ACME INC.</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1728</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1729</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1730</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1731</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1732</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1733</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1734</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1735</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1736</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1737</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1738</t>
+  </si>
+  <si>
+    <t>WALMART SUPERCENTER 1739</t>
+  </si>
+  <si>
+    <t>CHECK #12</t>
+  </si>
+  <si>
+    <t>UBER TRIP 08/13 SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CVS PHARMACY *#8901 800-9220204 NJ</t>
+  </si>
+  <si>
+    <t>IRS Tax Pmt 80-9709=7034785</t>
+  </si>
+  <si>
+    <t>DEBIT A*MC Movi3 Tickets</t>
+  </si>
+  <si>
+    <t>W*odify Payment</t>
+  </si>
+  <si>
+    <t>Zelle to Andre for "Software Services"</t>
+  </si>
+  <si>
+    <t>CHECK #134</t>
+  </si>
+  <si>
+    <t>REVERSE CASH DEPOSIT ATM</t>
+  </si>
+  <si>
+    <t>MCDONALDS#342 *800-922-0204* NJ</t>
+  </si>
+  <si>
+    <t>OFFICE DEPOT ONLINE ORDER #9395</t>
+  </si>
+  <si>
+    <t>LYFT RIDE #B23901 - BROOKLYN</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS MKT #4981 - NJ</t>
+  </si>
+  <si>
+    <t>NETFLIX.COM BILLING 800-555-1212</t>
+  </si>
+  <si>
+    <t>CHEVRON FUEL #0291 - PHOENIX AZ</t>
+  </si>
+  <si>
+    <t>HOME DEPOT ONLINE - TXN#34519</t>
+  </si>
+  <si>
+    <t>VERIZON BILLPAY#4941 (800-555-7777)</t>
+  </si>
+  <si>
+    <t>AIRBNB STAY TXN#A99102 - BOSTON MA</t>
+  </si>
+  <si>
+    <t>SPOTIFY PREMIUM BILLING</t>
+  </si>
+  <si>
+    <t>FIVE GUYS #8872 - ATLANTA</t>
+  </si>
+  <si>
+    <t>DOMINOS PIZZA #0452 - MOBILE ORDER</t>
+  </si>
+  <si>
+    <t>ADOBE CREATIVE CLOUD PLAN</t>
+  </si>
+  <si>
+    <t>BARNES &amp; NOBLE BOOKSTORE #203</t>
+  </si>
+  <si>
+    <t>BUDGET RENTAL CAR #A23453 - LA</t>
+  </si>
+  <si>
+    <t>WALGREENS #3094 - RX PICKUP</t>
+  </si>
+  <si>
+    <t>SUBWAY #6729 - LUNCH NJ</t>
+  </si>
+  <si>
+    <t>TRADER JOE'S #492 - NJ</t>
+  </si>
+  <si>
+    <t>HULU STREAMING SERVICE</t>
+  </si>
+  <si>
+    <t>AMAZON.COM ORDER #112-9382</t>
+  </si>
+  <si>
+    <t>REI CO-OP #0023 - HIKING GEAR</t>
+  </si>
+  <si>
+    <t>PARKMOBILE ZONE #9913 - STREET PARKING</t>
+  </si>
+  <si>
+    <t>CHECK Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76* Gus Chayand </t>
+  </si>
+  <si>
+    <t>Phillips 66 CA*801-909-9171</t>
+  </si>
+  <si>
+    <t>SHELL OIL FUEL (761)-661-9170 *THE</t>
+  </si>
+  <si>
+    <t>CHECK #45</t>
+  </si>
+  <si>
+    <t>Paychex TPS Taxes</t>
+  </si>
+  <si>
+    <t>Paychex Payroll Processing Inv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,13 +270,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,22 +559,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -647,643 +583,916 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>75.34</v>
+      <c r="B2" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>120</v>
+      <c r="B3" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>65.25</v>
+      <c r="B4" s="1">
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>88.5</v>
+      <c r="B5" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>99.99</v>
+      <c r="B6" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>45.67</v>
+      <c r="B7" s="1">
+        <v>63.12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>53.25</v>
+      <c r="B8" s="1">
+        <v>96.21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>66.88</v>
+      <c r="B9" s="1">
+        <v>900.42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>77.2</v>
+      <c r="B10" s="1">
+        <v>964.23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>84.33</v>
+      <c r="B11" s="1">
+        <v>86.23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>92.5</v>
+      <c r="B12" s="1">
+        <v>-743.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>110.75</v>
+      <c r="B13" s="2">
+        <v>-280.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>60.45</v>
+      <c r="B14" s="2">
+        <v>-128.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>79.099999999999994</v>
+      <c r="B15" s="2">
+        <v>-101.65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>98.25</v>
+      <c r="B16" s="2">
+        <v>-835.26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>40.5</v>
+      <c r="B17" s="2">
+        <v>-532.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>55</v>
+      <c r="B18" s="2">
+        <v>-996.73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>67.75</v>
+      <c r="B19" s="2">
+        <v>-50.62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>75.900000000000006</v>
+      <c r="B20" s="2">
+        <v>-945.28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>85.2</v>
+      <c r="B21" s="2">
+        <v>-867.24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>82.45</v>
+      <c r="B22" s="2">
+        <v>-89.62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>130.19999999999999</v>
+      <c r="B23" s="2">
+        <v>-166.95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>70.150000000000006</v>
+      <c r="B24" s="2">
+        <v>-221.4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>95.8</v>
+      <c r="B25" s="2">
+        <v>-164.31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>105.99</v>
+      <c r="B26" s="2">
+        <v>-870.99</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>50.1</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-93.85</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>60.75</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-309.42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>72.2</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-715.39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>80.400000000000006</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-863.93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>90.3</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-460.75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>95.55</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-681.48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>115.8</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-751.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>65.7</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-365.96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>85.2</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-829.7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>99.4</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-116.87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>45.9</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-681.33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>59.8</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-120.12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>70.75</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-409.59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>78.900000000000006</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-1000.79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>88.6</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-813.13</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>84.1</v>
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-923.13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>131.25</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-364.7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>72.45</v>
+        <v>37</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-86.2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>97.8</v>
+        <v>38</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-626.11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>107.25</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-489.97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>52.6</v>
+        <v>40</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-308.2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>62.55</v>
+        <v>35</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-254.69</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>74.099999999999994</v>
+        <v>36</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-267.26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>82.35</v>
+        <v>37</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-585.51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>92.8</v>
+        <v>38</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-802.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>96.9</v>
+        <v>39</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-754.92</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>118.1</v>
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-603.54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>67.55</v>
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-706.9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>87.65</v>
+        <v>42</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-176.73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>101.75</v>
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-203.9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>48.2</v>
+        <v>41</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-929.31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>61.35</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-115.25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>72.900000000000006</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-647.87</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>80.95</v>
+        <v>34</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-881.13</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>90.1</v>
+        <v>37</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-68.86</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-215.17</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-354.22</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-443.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-155.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-813.94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-357.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-757.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-424.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-533.14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-369.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-659.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-309.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-103.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-513.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-680.31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-147.69999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-104.74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-506.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-825.29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-759.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-788.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-678.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-722.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-948.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-532.88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-860.52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-235.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-682.41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-848.88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-297.89999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-638.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-361.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-608.66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-466.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-143.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-169.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-573.32000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-321.54000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-485.96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-544.41999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-275.89999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-103.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-975.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-118.69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-103.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-483.54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-490.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-336.58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-180.21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-716.72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-517.88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-325.49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-334.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-120.81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>